--- a/medicine/Enfance/Les_Contes_du_chat_perché/Les_Contes_du_chat_perché.xlsx
+++ b/medicine/Enfance/Les_Contes_du_chat_perché/Les_Contes_du_chat_perché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Contes_du_chat_perch%C3%A9</t>
+          <t>Les_Contes_du_chat_perché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Contes du chat perché est un recueil de contes écrits par Marcel Aymé et publiés entre 1934 et 1946.
 L'auteur adopte le point de vue de ses personnages principaux, Delphine et Marinette, deux petites filles d'âge scolaire vivant dans une ferme avec leurs parents et des animaux doués de parole. Elles et les animaux sont complices contre les adultes, leurs parents en particulier. Ces derniers, représentation stéréotypée des ruraux « un peu frustes »[pas clair], ne sont pas méchants et aiment leurs filles, mais les traitent avec une certaine rudesse et ne font pas de sentiment avec les animaux, qu'ils considèrent d'un point de vue purement utilitaire, contrairement aux fillettes qui communiquent avec eux comme avec des personnes. Marcel Aymé déclarait avoir écrit ces contes pour « les enfants âgés de 4 à 75 ans ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Contes_du_chat_perch%C3%A9</t>
+          <t>Les_Contes_du_chat_perché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Introduction de Marcel Aymé
-« Je me suis assis sous un pommier, et le chat m'a raconté des aventures qu'il était seul à connaître, parce qu'elles sont arrivées à des bêtes du voisinage et à deux petites filles qui sont des amies. Ces Contes du chat perché, je les donne ici sans rien y changer. L'opinion de mon ami le chat est qu'ils conviennent à tous les enfants qui sont encore en âge où on peut comprendre les bêtes et parler avec elles. »
-Résumés des contes
-Le Loup : Seules à la ferme, Delphine et Marinette s'ennuient un peu. Le loup toque au carreau et supplie qu'on lui ouvre. Malgré les recommandations des parents, Les fillettes se laisseraient bien tenter mais l'animal a fort mauvaise réputation. Par ses belles paroles, le loup parviendra-t-il à leur faire oublier qu'il a dévoré le Petit Chaperon rouge et l'agneau de la fable ?
+          <t>Introduction de Marcel Aymé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Je me suis assis sous un pommier, et le chat m'a raconté des aventures qu'il était seul à connaître, parce qu'elles sont arrivées à des bêtes du voisinage et à deux petites filles qui sont des amies. Ces Contes du chat perché, je les donne ici sans rien y changer. L'opinion de mon ami le chat est qu'ils conviennent à tous les enfants qui sont encore en âge où on peut comprendre les bêtes et parler avec elles. »</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumés des contes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Loup : Seules à la ferme, Delphine et Marinette s'ennuient un peu. Le loup toque au carreau et supplie qu'on lui ouvre. Malgré les recommandations des parents, Les fillettes se laisseraient bien tenter mais l'animal a fort mauvaise réputation. Par ses belles paroles, le loup parviendra-t-il à leur faire oublier qu'il a dévoré le Petit Chaperon rouge et l'agneau de la fable ?
 Les Bœufs : Les filles, qui sont d'excellentes élèves à l'école, décident d'apprendre à lire aux deux bœufs de la ferme. Malheureusement, cela va affecter leur travail en temps qu'animaux de trait.
 Le Chien : En revenant des courses, Delphine et Marinette font une curieuse rencontre : un chien aveugle qui les supplie de l'adopter. Les deux petites filles se laissent bien vite attendrir par l'animal infirme mais ce nouveau compagnon sera-t-il du goût des parents et du chat ? Et tous découvrent l'étrange façon à cause de laquelle le chien est devenu aveugle.
 Le Petit coq noir - 1934.
@@ -538,44 +589,115 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Les_Contes_du_chat_perch%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Éditions et illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1963, Gallimard les édite pour la première fois en deux volumes connus comme Les Contes bleus du chat perché (8 contes) et Les Contes rouges du chat perché (7 contes). Un recueil définitif intitulé Les Contes du chat perché est paru, de manière posthume, en 1969.
 La première édition (1934) des contes a été illustrée par 67 aquarelles de Natan Altman, artiste de l'avant-garde russe, qui séjournait à Paris à l'époque.
-Contes rouges du chat perché (1963)
-Les Bœufs (1934)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éditions et illustrations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contes rouges du chat perché (1963)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Bœufs (1934)
 Le Chien (1934)
 Le Paon (1938)
 Les Boîtes de peinture (1941)
 Les Vaches (1942)
 La Patte du chat (1944)
-Le Problème (1946)
-Contes bleus du chat perché (1963)
-Le loup
+Le Problème (1946)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éditions et illustrations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contes bleus du chat perché (1963)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le loup
 Le cerf et le chien
 L'éléphant
 Le canard et la panthère
@@ -588,81 +710,223 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_Contes_du_chat_perch%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Suites allographes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Deux contes sont découverts dans les papiers personnels de la veuve de Marcel Aymé. Michel Lécureur précise dans le volume de la Pléiade que les tapuscrits sont dépourvus de « toute annotation manuscrite et de signature. Par le style, le rythme, la syntaxe et le vocabulaire, ces contes diffèrent sensiblement des dix-sept contes publiés de 1934 à 1946. » L'attribution de ces deux contes à Marcel Aymé est sujette à caution. Leur paternité est d'ailleurs revendiquée par un certain Frédéric Lerich[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Deux contes sont découverts dans les papiers personnels de la veuve de Marcel Aymé. Michel Lécureur précise dans le volume de la Pléiade que les tapuscrits sont dépourvus de « toute annotation manuscrite et de signature. Par le style, le rythme, la syntaxe et le vocabulaire, ces contes diffèrent sensiblement des dix-sept contes publiés de 1934 à 1946. » L'attribution de ces deux contes à Marcel Aymé est sujette à caution. Leur paternité est d'ailleurs revendiquée par un certain Frédéric Lerich.
 Nouveaux contes du Chat perché
 Le Mammouth / illustrations Claudine et Roland Sabatier. Paris : Gallimard jeunesse, novembre 1997, 32 p.  (ISBN 2-07-051697-0)
 Le Commis du père Noël / illustrations Claudine et Roland Sabatier. Paris : Gallimard jeunesse, novembre 1996, 32 p.  (ISBN 2-07-050669-X). Rééd. coll. « Folio cadet » n° 367, novembre 1998, 63 p.  (ISBN 2-07-052192-3)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Contes_du_chat_perch%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Adaptation télévisée
-En 1968 par Arlen Papazian[2], diffusée à partir du 21 décembre 1968 sur la Deuxième chaîne de l'ORTF.
-Les Contes du chat perché sont restitués par Jacques Colombat pour France Animation, conformément aux illustrations de Roland et Claudine Sabatier (Gallimard jeunesse). Le dessin animé est diffusé à partir du 26 décembre 1994 sur Canal+, et au Québec à partir du 9 septembre 1995 à la Télévision de Radio-Canada.
-Bande dessinée
-Livre Audio
-Les contes bleus du chat perché, Adaptation de Le Loup et L'éléphant interprétés par Michel Galabru, Roger Carel et Perrette Pradier, musique originale de François Rauber, livre-disque CD, première parution en 2004, Gallimard  (ISBN 9782075101479).
-Les contes rouges du chat perché, Adaptation de La patte du chat, Le Chien, Les boîtes de peinture et Le Paon, interprétés par Michel Galabru, Roger Carel et Perrette Pradier, musique originale de François Rauber, livre-disque CD, première parution en 2004, Gallimard  (ISBN 9782075136020).
-Disques
-Les contes bleus du chat perché, Adaptation de Le Loup et Le Problème racontés par François Perier, Frédérique Hébrard, Laurence Badie, Jean Rochefort, etc., édité en 1965 par Disques Vogue (réf. LD 689 30).
-Les contes rouges du chat perché, Adaptation de Les Bœufs et Le Chien racontés par François Perier, Frédérique Hébrard, Laurence Badie, Michel Galabru, Henri Virlojeux, etc., édité en 1965 par Disques Vogue (réf. LD 688 30).
-Théâtre
-Le Loup, mise en scène Véronique Vella, Studio-Théâtre de la Comédie-Française, 2016
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adaptation télévisée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1968 par Arlen Papazian, diffusée à partir du 21 décembre 1968 sur la Deuxième chaîne de l'ORTF.
+Les Contes du chat perché sont restitués par Jacques Colombat pour France Animation, conformément aux illustrations de Roland et Claudine Sabatier (Gallimard jeunesse). Le dessin animé est diffusé à partir du 26 décembre 1994 sur Canal+, et au Québec à partir du 9 septembre 1995 à la Télévision de Radio-Canada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livre Audio</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les contes bleus du chat perché, Adaptation de Le Loup et L'éléphant interprétés par Michel Galabru, Roger Carel et Perrette Pradier, musique originale de François Rauber, livre-disque CD, première parution en 2004, Gallimard  (ISBN 9782075101479).
+Les contes rouges du chat perché, Adaptation de La patte du chat, Le Chien, Les boîtes de peinture et Le Paon, interprétés par Michel Galabru, Roger Carel et Perrette Pradier, musique originale de François Rauber, livre-disque CD, première parution en 2004, Gallimard  (ISBN 9782075136020).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Disques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les contes bleus du chat perché, Adaptation de Le Loup et Le Problème racontés par François Perier, Frédérique Hébrard, Laurence Badie, Jean Rochefort, etc., édité en 1965 par Disques Vogue (réf. LD 689 30).
+Les contes rouges du chat perché, Adaptation de Les Bœufs et Le Chien racontés par François Perier, Frédérique Hébrard, Laurence Badie, Michel Galabru, Henri Virlojeux, etc., édité en 1965 par Disques Vogue (réf. LD 688 30).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Loup, mise en scène Véronique Vella, Studio-Théâtre de la Comédie-Française, 2016
 Le Cerf et le Chien, mise en scène Véronique Vella, Studio-Théâtre de la Comédie-Française, 2017
-Le Chien ,Mise en scène Raphaëlle Saudinos et Véronique Vella, Studio-Théâtre de la Comédie-Française, 2023
-Opéra
-Chat Perché, opéra rural, Caroline Gautier, musique de Jean-Marc Singier, créé à l'Amphithéâtre de l'Opéra Bastille le 11 mars 2011.</t>
+Le Chien ,Mise en scène Raphaëlle Saudinos et Véronique Vella, Studio-Théâtre de la Comédie-Française, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Contes_du_chat_perché</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_du_chat_perch%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Opéra</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chat Perché, opéra rural, Caroline Gautier, musique de Jean-Marc Singier, créé à l'Amphithéâtre de l'Opéra Bastille le 11 mars 2011.</t>
         </is>
       </c>
     </row>
